--- a/Data/EUDA/Tampon/sex_global.xlsx
+++ b/Data/EUDA/Tampon/sex_global.xlsx
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>All.global</t>
+          <t>All.global.sex</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Males.global</t>
+          <t>Males.global.sex</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Females.global</t>
+          <t>Females.global.sex</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.global</t>
+          <t>Not known / missing.global.sex</t>
         </is>
       </c>
     </row>
